--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed5/result_data_KNN.xlsx
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.58</v>
+        <v>-8.030000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>16.434</v>
+        <v>16.751</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.518000000000001</v>
+        <v>5.220999999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.574000000000001</v>
+        <v>-7.547</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.396000000000001</v>
+        <v>-7.699000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.52</v>
+        <v>15.899</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.512</v>
+        <v>-8.430000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.044</v>
+        <v>6.267</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.414</v>
+        <v>-7.672</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.48</v>
+        <v>8.548</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.325999999999999</v>
+        <v>-7.741</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.040000000000001</v>
+        <v>5.445</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.63</v>
+        <v>16.747</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.206</v>
+        <v>-7.498</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.24</v>
+        <v>6.377000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.845999999999999</v>
+        <v>5.155</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.782999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.101000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.234</v>
+        <v>16.425</v>
       </c>
     </row>
     <row r="59">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>6.05</v>
+        <v>5.329</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.616</v>
+        <v>5.147</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.784</v>
+        <v>5.380999999999999</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>15.902</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.199</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.654000000000001</v>
+        <v>5.276</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>16.718</v>
+        <v>16.916</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>16.504</v>
+        <v>16.931</v>
       </c>
     </row>
     <row r="93">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.952</v>
+        <v>5.217000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.356</v>
+        <v>-8.280000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.068000000000001</v>
+        <v>-7.808</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.692</v>
       </c>
     </row>
   </sheetData>
